--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06956231358551714</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.559686776051524</v>
+        <v>-1.566200854185027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01746779133879461</v>
+        <v>0.01725057670005511</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1211025560240327</v>
+        <v>-0.1341196941571894</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06378364145695499</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.556254627357528</v>
+        <v>-1.566205576242391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02922886221315335</v>
+        <v>0.02855833006747925</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0791250400780647</v>
+        <v>-0.09497383861044133</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06717795319360499</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.639233767394258</v>
+        <v>-1.645148144242545</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03171558414448798</v>
+        <v>-0.0305996045874858</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08580832526710742</v>
+        <v>-0.1014430571989871</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07813060045961909</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.786153499186025</v>
+        <v>-1.786168452367677</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09559400214423379</v>
+        <v>-0.08789390060283084</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09090657320100035</v>
+        <v>-0.1080271791833879</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09026168276027322</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.860090686380442</v>
+        <v>-1.845985901034467</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1312896077770908</v>
+        <v>-0.1176664722822333</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09048158803824916</v>
+        <v>-0.106865553071868</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1008790877984757</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.680340850766146</v>
+        <v>-1.666142411282454</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1541522355139833</v>
+        <v>-0.1288294158904978</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09455514952417535</v>
+        <v>-0.1067144472362232</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1106871885058966</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331041610453144</v>
+        <v>-1.330278998188873</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1621089021721583</v>
+        <v>-0.1347052292703133</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04600610374677692</v>
+        <v>-0.06285125638293688</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1200324271612025</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7956295622279869</v>
+        <v>-0.8135151415033266</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.113021541855275</v>
+        <v>-0.07962400413951702</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06052013406429057</v>
+        <v>-0.0724685132140841</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.126120882744286</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2408649489064382</v>
+        <v>-0.2753249495290742</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1351144742418515</v>
+        <v>-0.0951359625799353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02493966010760897</v>
+        <v>0.008083489337599907</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1213661399078482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3549768414236946</v>
+        <v>0.3055038464220927</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1511112305716304</v>
+        <v>-0.1147655550416762</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09716667552673364</v>
+        <v>0.07990598184255029</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09657630002327725</v>
       </c>
       <c r="E12" t="n">
-        <v>1.027265592437159</v>
+        <v>0.9639868757226289</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2562195054347264</v>
+        <v>-0.2075933327203842</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1547616091942471</v>
+        <v>0.1437356052495358</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04576984806725889</v>
       </c>
       <c r="E13" t="n">
-        <v>1.73735441264866</v>
+        <v>1.657938851902555</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.422760172583067</v>
+        <v>-0.3700966408225885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2635656809541572</v>
+        <v>0.2498701405797199</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03014652522713757</v>
       </c>
       <c r="E14" t="n">
-        <v>2.410164163991275</v>
+        <v>2.325123058905641</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6665064776312063</v>
+        <v>-0.6102463121785557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3737722037511461</v>
+        <v>0.3620394652209707</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.120060577201691</v>
       </c>
       <c r="E15" t="n">
-        <v>3.127235333024865</v>
+        <v>3.03468930476887</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9691990117624957</v>
+        <v>-0.9108091984387253</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5213412184304494</v>
+        <v>0.5084610199608459</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.210112060062402</v>
       </c>
       <c r="E16" t="n">
-        <v>3.808946162498436</v>
+        <v>3.710886345260524</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.20628328087973</v>
+        <v>-1.148557703625148</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6824892960692139</v>
+        <v>0.6691841124368592</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2962774486076603</v>
       </c>
       <c r="E17" t="n">
-        <v>4.48043531179828</v>
+        <v>4.371941321805266</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.51265508470706</v>
+        <v>-1.447012191272336</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8534151804894982</v>
+        <v>0.8392206760536086</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3800926184266948</v>
       </c>
       <c r="E18" t="n">
-        <v>5.167283739683776</v>
+        <v>5.04375786708234</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.719988031403029</v>
+        <v>-1.65714689200422</v>
       </c>
       <c r="G18" t="n">
-        <v>1.010310258462508</v>
+        <v>0.9947070069130545</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4616642685652837</v>
       </c>
       <c r="E19" t="n">
-        <v>5.645107150317904</v>
+        <v>5.522640592585104</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.962040691876649</v>
+        <v>-1.89365664414218</v>
       </c>
       <c r="G19" t="n">
-        <v>1.176441680639311</v>
+        <v>1.162680031461779</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.539292169018229</v>
       </c>
       <c r="E20" t="n">
-        <v>6.091012601210297</v>
+        <v>5.960055784337201</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.111275018786288</v>
+        <v>-2.04480419129376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.303801863820234</v>
+        <v>1.290929535446237</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6097665554896916</v>
       </c>
       <c r="E21" t="n">
-        <v>6.376261068429772</v>
+        <v>6.2518679112925</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.303808250694228</v>
+        <v>-2.240039227023412</v>
       </c>
       <c r="G21" t="n">
-        <v>1.417299660599863</v>
+        <v>1.407002427508314</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6700064466732171</v>
       </c>
       <c r="E22" t="n">
-        <v>6.707980876186528</v>
+        <v>6.579218241968525</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.396543948254339</v>
+        <v>-2.339345667405394</v>
       </c>
       <c r="G22" t="n">
-        <v>1.50956866149051</v>
+        <v>1.502115680951151</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7193428956282799</v>
       </c>
       <c r="E23" t="n">
-        <v>6.831972658447868</v>
+        <v>6.708451507903797</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.483055187199268</v>
+        <v>-2.429370904038626</v>
       </c>
       <c r="G23" t="n">
-        <v>1.608676775463207</v>
+        <v>1.602808832178998</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7587657939750174</v>
       </c>
       <c r="E24" t="n">
-        <v>6.956782930652285</v>
+        <v>6.839686926161363</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.529383291996511</v>
+        <v>-2.480606013446524</v>
       </c>
       <c r="G24" t="n">
-        <v>1.614275561477674</v>
+        <v>1.611672133851042</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.789866286678725</v>
       </c>
       <c r="E25" t="n">
-        <v>7.03920014586271</v>
+        <v>6.924528130818591</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.54149536913492</v>
+        <v>-2.492720451613615</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659290934327752</v>
+        <v>1.659024925096252</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8129587702029615</v>
       </c>
       <c r="E26" t="n">
-        <v>7.014535266231928</v>
+        <v>6.909625317778116</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.57626309049577</v>
+        <v>-2.523201331897603</v>
       </c>
       <c r="G26" t="n">
-        <v>1.669830566363982</v>
+        <v>1.678322399523399</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8265924742070343</v>
       </c>
       <c r="E27" t="n">
-        <v>6.938288205977002</v>
+        <v>6.842375350820545</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.4661281855688</v>
+        <v>-2.424306497515841</v>
       </c>
       <c r="G27" t="n">
-        <v>1.635897862146981</v>
+        <v>1.643517688713198</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8293637560943006</v>
       </c>
       <c r="E28" t="n">
-        <v>6.794910804217722</v>
+        <v>6.711993050926723</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.379280106531914</v>
+        <v>-2.348958202179177</v>
       </c>
       <c r="G28" t="n">
-        <v>1.56688184573531</v>
+        <v>1.582617314890953</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8212278661046022</v>
       </c>
       <c r="E29" t="n">
-        <v>6.62157981858009</v>
+        <v>6.547673324758538</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.298658847138892</v>
+        <v>-2.270158082909501</v>
       </c>
       <c r="G29" t="n">
-        <v>1.509760691823308</v>
+        <v>1.52876225065565</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8029168707019544</v>
       </c>
       <c r="E30" t="n">
-        <v>6.417547589981488</v>
+        <v>6.355575309137638</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.248224913463736</v>
+        <v>-2.226035965910761</v>
       </c>
       <c r="G30" t="n">
-        <v>1.443395323611907</v>
+        <v>1.46253067406956</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7767318037244979</v>
       </c>
       <c r="E31" t="n">
-        <v>6.120451480835984</v>
+        <v>6.072159000175358</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.038954349229446</v>
+        <v>-2.036888449132739</v>
       </c>
       <c r="G31" t="n">
-        <v>1.364064759898353</v>
+        <v>1.384641911871116</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.745162028181152</v>
       </c>
       <c r="E32" t="n">
-        <v>5.843993910408973</v>
+        <v>5.807380651628399</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.905021849207531</v>
+        <v>-1.911311629616249</v>
       </c>
       <c r="G32" t="n">
-        <v>1.270412196200083</v>
+        <v>1.297102838439979</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7099985752059994</v>
       </c>
       <c r="E33" t="n">
-        <v>5.468497482850603</v>
+        <v>5.445387734111666</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.830675417041575</v>
+        <v>-1.842861473078685</v>
       </c>
       <c r="G33" t="n">
-        <v>1.188934670405074</v>
+        <v>1.217747090420483</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.672763756311431</v>
       </c>
       <c r="E34" t="n">
-        <v>5.142134062163633</v>
+        <v>5.130780662241691</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.751173285243799</v>
+        <v>-1.765488202142468</v>
       </c>
       <c r="G34" t="n">
-        <v>1.067072536014854</v>
+        <v>1.099774357278997</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6341376867506666</v>
       </c>
       <c r="E35" t="n">
-        <v>4.724444478039676</v>
+        <v>4.727531129536547</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.697404005050607</v>
+        <v>-1.71416888271158</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9937389851534545</v>
+        <v>1.024416617827605</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5942903379586121</v>
       </c>
       <c r="E36" t="n">
-        <v>4.250655278413441</v>
+        <v>4.264036014963619</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.606924663900879</v>
+        <v>-1.629947841588144</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9222187043197938</v>
+        <v>0.9568203666633469</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5543023511115337</v>
       </c>
       <c r="E37" t="n">
-        <v>3.8607219474745</v>
+        <v>3.88451324649296</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.572144350387058</v>
+        <v>-1.593867388280129</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8457953539232815</v>
+        <v>0.8784263443269661</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5151267436552289</v>
       </c>
       <c r="E38" t="n">
-        <v>3.499629368895152</v>
+        <v>3.532457111688999</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.481486358067063</v>
+        <v>-1.506102443105085</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7472365726239177</v>
+        <v>0.7830848581115408</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4770556823739778</v>
       </c>
       <c r="E39" t="n">
-        <v>3.058834758089623</v>
+        <v>3.103003308652441</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.453732465910729</v>
+        <v>-1.478403641617996</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6875843959648642</v>
+        <v>0.7195700385288155</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4409403155158018</v>
       </c>
       <c r="E40" t="n">
-        <v>2.634260414329096</v>
+        <v>2.689963377012806</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.445840334036527</v>
+        <v>-1.468658889238023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.614406672996474</v>
+        <v>0.6473005245934157</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4072004462334151</v>
       </c>
       <c r="E41" t="n">
-        <v>2.286726436460632</v>
+        <v>2.343628801714774</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.407967859958912</v>
+        <v>-1.433227718817545</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5606177175642656</v>
+        <v>0.5939160920753815</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3758638581971215</v>
       </c>
       <c r="E42" t="n">
-        <v>1.909349056052307</v>
+        <v>1.971620400529205</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.375476957257023</v>
+        <v>-1.399070716875759</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4977907443375486</v>
+        <v>0.5301368372802777</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3475454309528109</v>
       </c>
       <c r="E43" t="n">
-        <v>1.671805960361214</v>
+        <v>1.730611314733008</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.35726162097577</v>
+        <v>-1.376322992534722</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4206543632790871</v>
+        <v>0.4528257400993518</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3212036666673406</v>
       </c>
       <c r="E44" t="n">
-        <v>1.46646414785369</v>
+        <v>1.517489125708894</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.354993459421976</v>
+        <v>-1.371575750864879</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3585404207143194</v>
+        <v>0.3871041457085629</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2950544676211159</v>
       </c>
       <c r="E45" t="n">
-        <v>1.242500115122058</v>
+        <v>1.294727643585936</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.28324809385397</v>
+        <v>-1.299734370130473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2949059756783751</v>
+        <v>0.3255615720848273</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2683510763566229</v>
       </c>
       <c r="E46" t="n">
-        <v>1.017626299338314</v>
+        <v>1.070022247848171</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.224593845317821</v>
+        <v>-1.240258483613005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2630210703381871</v>
+        <v>0.2885957330210807</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2413001421076111</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8906989714157476</v>
+        <v>0.9401845585703199</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.16713585131386</v>
+        <v>-1.183683514336095</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1845593651795904</v>
+        <v>0.2121157179362016</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2146297401087177</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7380065244966104</v>
+        <v>0.7790081485873721</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.093008994815326</v>
+        <v>-1.108542202513882</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1336414206246345</v>
+        <v>0.1551944644526048</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.189055943667556</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5693236173241797</v>
+        <v>0.6119181487656976</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.039278278090606</v>
+        <v>-1.051682335776016</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08521672235781881</v>
+        <v>0.1077362139262678</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1644245741099233</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4927743453979633</v>
+        <v>0.5319516813271374</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.987718133734159</v>
+        <v>-0.9966947647829367</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0785476033408678</v>
+        <v>0.09577052056613992</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1401713401852496</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3745230108720065</v>
+        <v>0.4125434427470246</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9702323553156296</v>
+        <v>-0.9771824367457328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0762432393472836</v>
+        <v>0.08804051266143224</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1159172580464614</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2541467505322939</v>
+        <v>0.2830016690639781</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9791003790450377</v>
+        <v>-0.9788808033776162</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01440947218610737</v>
+        <v>0.02947440919607626</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09150996018131054</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1813231818661962</v>
+        <v>0.2122022889878731</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9316712478724447</v>
+        <v>-0.9403692775367523</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02634998124029439</v>
+        <v>0.03596251601407769</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.06772690355029988</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1014952281103105</v>
+        <v>0.1209752887555278</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9093595268280075</v>
+        <v>-0.9132363359237711</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.009915419314473458</v>
+        <v>-0.001310256778322597</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04562176039590574</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06701791327734026</v>
+        <v>0.07544993371014805</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.927592177319594</v>
+        <v>-0.9267603082139866</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02483712058440398</v>
+        <v>-0.01709137248848329</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02640905995630671</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.00454486607259551</v>
+        <v>0.001962128974861533</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9436825877870902</v>
+        <v>-0.9390447404461778</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05434368303230667</v>
+        <v>-0.04840648290676047</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01053764537020969</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09584899324188451</v>
+        <v>-0.09144173970224258</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9795403173894413</v>
+        <v>-0.9702465214877213</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08976068728069345</v>
+        <v>-0.08403283169828024</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.002146526687864623</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1292575490914916</v>
+        <v>-0.1280329622151197</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9832691686878026</v>
+        <v>-0.9712247743716097</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1139565092133276</v>
+        <v>-0.1094658326602568</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01219453212119724</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.196934075230936</v>
+        <v>-0.1975794230706693</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.986059117580308</v>
+        <v>-0.975644620064222</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1214504142498402</v>
+        <v>-0.1189115214071822</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.02062451399799869</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.266378224843601</v>
+        <v>-0.2707004813506927</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.032635917398717</v>
+        <v>-1.016089828395604</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1275859407846703</v>
+        <v>-0.1263298735258723</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.02834714714185207</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3342892798321192</v>
+        <v>-0.3425875086396164</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.012246073701388</v>
+        <v>-0.9958188231419329</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1640055952133256</v>
+        <v>-0.1623780594419007</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03675871461299108</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4641757637027307</v>
+        <v>-0.46970529287586</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.05672155799286</v>
+        <v>-1.032502912782967</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1879763324116138</v>
+        <v>-0.1862795397988516</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.04683877328141518</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5250147507792449</v>
+        <v>-0.5279518704595919</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.097635824022389</v>
+        <v>-1.068158380928231</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2227039162848709</v>
+        <v>-0.2202940930101595</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.05877835952346053</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6637314819203531</v>
+        <v>-0.6656801175925234</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.141640676596593</v>
+        <v>-1.10993206139799</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2754666112499912</v>
+        <v>-0.2707414058478465</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07190673741477274</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8259388744277529</v>
+        <v>-0.8235684016310741</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.213037396929231</v>
+        <v>-1.175962950546115</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3418162392701791</v>
+        <v>-0.3342924278703618</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.08579844370085896</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9402110886150615</v>
+        <v>-0.9352364011821908</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.242923297985367</v>
+        <v>-1.205813436172022</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.371585662911339</v>
+        <v>-0.3648378429383229</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.09973777405567946</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.037816801336478</v>
+        <v>-1.02643192103211</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.310616351325585</v>
+        <v>-1.268551477318385</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4445272830115342</v>
+        <v>-0.4334745207417607</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1130644944333435</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.156285350501174</v>
+        <v>-1.134888921575773</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.383317146500221</v>
+        <v>-1.334392697162393</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4504282806972905</v>
+        <v>-0.442830490398772</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1250133778854644</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.335305628252747</v>
+        <v>-1.301466578173464</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.44396725128218</v>
+        <v>-1.393118563568561</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.486932932158496</v>
+        <v>-0.4771031827459732</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1346002180414307</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.398356112194689</v>
+        <v>-1.361500454469433</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.542311178971486</v>
+        <v>-1.486678260138674</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5308779720060899</v>
+        <v>-0.5173618698114809</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1411779396126988</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.463127786045773</v>
+        <v>-1.42159256947289</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.592451558080519</v>
+        <v>-1.531478779378695</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5952002633980426</v>
+        <v>-0.5770533969485668</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.144442499899892</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.539462991371492</v>
+        <v>-1.493764494222769</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.635494684971608</v>
+        <v>-1.576257262351017</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5953592393292939</v>
+        <v>-0.573787307271868</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1442504320491665</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.615813149878864</v>
+        <v>-1.557191168734702</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.638977989287046</v>
+        <v>-1.581914287072972</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6293690704832379</v>
+        <v>-0.6042823537279475</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1404254288088706</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.672936664819548</v>
+        <v>-1.608747378043345</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.668059566572198</v>
+        <v>-1.612160638507886</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6332836560379127</v>
+        <v>-0.6093585653941422</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1329663314784636</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.682398880767247</v>
+        <v>-1.611507420572546</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.652842736717023</v>
+        <v>-1.600503452895533</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6533586959109816</v>
+        <v>-0.6284372511634279</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1218620448079126</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.592267397843327</v>
+        <v>-1.522415577278245</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.727627533208262</v>
+        <v>-1.668397193673717</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6370329695848509</v>
+        <v>-0.6111623913071528</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1069874324650276</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.519282492217296</v>
+        <v>-1.452554312598435</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.733682784767905</v>
+        <v>-1.675100154101776</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6115291377624158</v>
+        <v>-0.5869020345905452</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08815768971250584</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.34803944294407</v>
+        <v>-1.283071803712384</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.672484921331735</v>
+        <v>-1.619207522113949</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.569861703583344</v>
+        <v>-0.5458579119835085</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06581838110354354</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.220247191514349</v>
+        <v>-1.157138468864919</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.637636137986137</v>
+        <v>-1.590578475326171</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5866643577032289</v>
+        <v>-0.5577748107508761</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04078071268618878</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.031210643084379</v>
+        <v>-0.9723250137373989</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.594788976475651</v>
+        <v>-1.552790998281106</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5735921289008267</v>
+        <v>-0.5437959469346046</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.01421510834112977</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8846490006427079</v>
+        <v>-0.8259845209822706</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.549930218528142</v>
+        <v>-1.514142532776689</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5368073020360296</v>
+        <v>-0.5090195684685872</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.01235787598759685</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.655187706129933</v>
+        <v>-0.6063663550445496</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.536860350754422</v>
+        <v>-1.505598756986269</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4816898744654434</v>
+        <v>-0.4577805240128859</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.03694043445666429</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.439679304117928</v>
+        <v>-0.3938155349614686</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.419145756748828</v>
+        <v>-1.40023312999684</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3957956510160649</v>
+        <v>-0.3741686282893934</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.05747908901066437</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2392090807908298</v>
+        <v>-0.1987567893734022</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.370194549085938</v>
+        <v>-1.357900672739019</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3715557565480343</v>
+        <v>-0.3503458488885075</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07272759094994938</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.04238271172954274</v>
+        <v>-0.004074234355326604</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.238781266667665</v>
+        <v>-1.231564388996501</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3507897222807143</v>
+        <v>-0.3258116128447937</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08304803752793651</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2300138893645117</v>
+        <v>0.2621002691522262</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.122223576716227</v>
+        <v>-1.121131994455605</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2900514724279634</v>
+        <v>-0.2654322393516993</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08980420526374698</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4698298686667632</v>
+        <v>0.4962025590441562</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9810812821091945</v>
+        <v>-0.9873167588582272</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2202279842070649</v>
+        <v>-0.1984010610519882</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.09470563230655536</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6380201078542269</v>
+        <v>0.6643770580404069</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8285360059778991</v>
+        <v>-0.8375488394664669</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1987268830100975</v>
+        <v>-0.1763175727801396</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.099129722233707</v>
       </c>
       <c r="E89" t="n">
-        <v>0.827078692551895</v>
+        <v>0.8472702098399403</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7178667215592477</v>
+        <v>-0.7255211765461329</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1331249140725274</v>
+        <v>-0.1148505520742264</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1030025420285246</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9690520692549746</v>
+        <v>0.9855588077800548</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5156808173899318</v>
+        <v>-0.5314635071192138</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1161176374668735</v>
+        <v>-0.09678710863817971</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1053863860014488</v>
       </c>
       <c r="E91" t="n">
-        <v>1.094628888771465</v>
+        <v>1.10828507866787</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3192998957399727</v>
+        <v>-0.336340226747174</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1395044135711591</v>
+        <v>-0.1199141715874507</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1046380948918635</v>
       </c>
       <c r="E92" t="n">
-        <v>1.159713005418127</v>
+        <v>1.169146102012082</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1817164583662009</v>
+        <v>-0.1967798213570485</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1008606701241059</v>
+        <v>-0.08193466420958642</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09928441206850071</v>
       </c>
       <c r="E93" t="n">
-        <v>1.184772963848355</v>
+        <v>1.194788447517191</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08024101963506688</v>
+        <v>-0.09387359924465215</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09645341658446398</v>
+        <v>-0.07907939352354698</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08868740765760444</v>
       </c>
       <c r="E94" t="n">
-        <v>1.179274915057652</v>
+        <v>1.183787627878421</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07735449684692187</v>
+        <v>0.05945160336124786</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05525189206529717</v>
+        <v>-0.04054268337674224</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07466699323418774</v>
       </c>
       <c r="E95" t="n">
-        <v>1.196431723479829</v>
+        <v>1.196027200565655</v>
       </c>
       <c r="F95" t="n">
-        <v>0.162367269588372</v>
+        <v>0.1436285719492873</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08976226129981475</v>
+        <v>-0.07630754585093646</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05901390233252737</v>
       </c>
       <c r="E96" t="n">
-        <v>1.114828276155116</v>
+        <v>1.114622079650226</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2508334402819559</v>
+        <v>0.2293370611423524</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1104259843242502</v>
+        <v>-0.1001161590797307</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04476279930917477</v>
       </c>
       <c r="E97" t="n">
-        <v>1.068585168390424</v>
+        <v>1.06619738138341</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3013720462286784</v>
+        <v>0.2784228474401144</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0786481122843106</v>
+        <v>-0.0697423120959913</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03300175360723163</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9438709113524061</v>
+        <v>0.945068739903716</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2796600264694567</v>
+        <v>0.259235554351459</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1340362711437605</v>
+        <v>-0.1252689846381157</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02533016904869402</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9175784959501995</v>
+        <v>0.9142824999101958</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2505768751651838</v>
+        <v>0.235014548112884</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1191350321224069</v>
+        <v>-0.1116332569902878</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01740231688917858</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8564231310303038</v>
+        <v>0.8551544716185354</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2460972167459621</v>
+        <v>0.2300044452497839</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1186927327493214</v>
+        <v>-0.1122565685623229</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.007889366628280192</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7981859975612997</v>
+        <v>0.7945751976970359</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2136739968662892</v>
+        <v>0.2015808079573361</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1036939045424471</v>
+        <v>-0.09907730645967222</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0116542321575904</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7903489563563435</v>
+        <v>0.7851735814855069</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1784663371610355</v>
+        <v>0.1707709576769964</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0857658267508323</v>
+        <v>-0.08247140472994996</v>
       </c>
     </row>
   </sheetData>
